--- a/tailieu/sodocosodulieu.xlsx
+++ b/tailieu/sodocosodulieu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\project1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACD59B3-6DC3-43E5-B3D5-DA7E17BA01F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92014CAE-D93A-4F93-8A8D-BEDF087B516D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5484" yWindow="3540" windowWidth="16440" windowHeight="9420" xr2:uid="{F5093153-23A0-4EBA-B484-0093EEC71099}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5093153-23A0-4EBA-B484-0093EEC71099}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>user</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>create_at</t>
   </si>
 </sst>
 </file>
@@ -187,7 +193,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -203,7 +209,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -502,7 +508,7 @@
   <dimension ref="A3:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,7 +528,7 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -533,7 +539,7 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -544,7 +550,7 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -555,7 +561,7 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -566,7 +572,7 @@
       <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>37</v>
       </c>
     </row>
@@ -577,6 +583,9 @@
       <c r="C8" t="s">
         <v>5</v>
       </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -585,8 +594,8 @@
       <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="E9" t="s">
-        <v>1</v>
+      <c r="G9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -594,17 +603,17 @@
         <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -612,7 +621,7 @@
         <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -620,7 +629,7 @@
         <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -628,7 +637,7 @@
         <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -636,7 +645,7 @@
         <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="G16" t="s">
         <v>17</v>
@@ -647,7 +656,7 @@
         <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
         <v>26</v>
@@ -656,6 +665,9 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
       </c>
       <c r="G18" t="s">
         <v>27</v>
